--- a/ParametricGraph/BenchMultiFunction.xlsx
+++ b/ParametricGraph/BenchMultiFunction.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -418,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="K1">
-        <v>3.2336065999999999</v>
+        <v>8.2336065999999999</v>
       </c>
       <c r="L1">
-        <v>-3.2336065999999999</v>
+        <v>2.2336065999999999</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>

--- a/ParametricGraph/BenchMultiFunction.xlsx
+++ b/ParametricGraph/BenchMultiFunction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -42,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -142,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +182,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -383,14 +393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
@@ -403,7 +413,7 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +441,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>981</v>
       </c>
@@ -443,12 +453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -457,7 +467,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2</v>
       </c>
@@ -465,7 +475,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.98</v>
       </c>
@@ -473,7 +483,7 @@
         <v>-1.98</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1.96</v>
       </c>
@@ -481,7 +491,7 @@
         <v>-1.96</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1.94</v>
       </c>
@@ -495,7 +505,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.92</v>
       </c>
@@ -511,7 +521,7 @@
         <v>3.2336066001076005</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.9</v>
       </c>
@@ -519,7 +529,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.88</v>
       </c>
@@ -527,7 +537,7 @@
         <v>-1.88</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.86</v>
       </c>
@@ -535,7 +545,7 @@
         <v>-1.86</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1.84</v>
       </c>
@@ -543,7 +553,7 @@
         <v>-1.84</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.82</v>
       </c>
@@ -551,7 +561,7 @@
         <v>-1.82</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.8</v>
       </c>
@@ -559,7 +569,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.78</v>
       </c>
@@ -567,7 +577,7 @@
         <v>-1.78</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.76</v>
       </c>
@@ -575,7 +585,7 @@
         <v>-1.76</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.74</v>
       </c>
@@ -583,7 +593,7 @@
         <v>-1.74</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.72</v>
       </c>
@@ -591,7 +601,7 @@
         <v>-1.72</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.7</v>
       </c>
@@ -599,7 +609,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.68</v>
       </c>
@@ -607,7 +617,7 @@
         <v>-1.68</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.66</v>
       </c>
@@ -615,7 +625,7 @@
         <v>-1.66</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.64</v>
       </c>
@@ -623,7 +633,7 @@
         <v>-1.64</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.62</v>
       </c>
@@ -631,7 +641,7 @@
         <v>-1.62</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.6</v>
       </c>
@@ -639,7 +649,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.58</v>
       </c>
@@ -647,7 +657,7 @@
         <v>-1.58</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.56</v>
       </c>
@@ -655,7 +665,7 @@
         <v>-1.56</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.54</v>
       </c>
@@ -663,7 +673,7 @@
         <v>-1.54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.52</v>
       </c>
@@ -671,7 +681,7 @@
         <v>-1.52</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.5</v>
       </c>
@@ -679,7 +689,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.48</v>
       </c>
@@ -687,7 +697,7 @@
         <v>-1.48</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.46</v>
       </c>
@@ -695,7 +705,7 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.44</v>
       </c>
@@ -703,7 +713,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.42</v>
       </c>
@@ -711,7 +721,7 @@
         <v>-1.42</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.4</v>
       </c>
@@ -719,7 +729,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.38</v>
       </c>
@@ -727,7 +737,7 @@
         <v>-1.38</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.36</v>
       </c>
@@ -735,7 +745,7 @@
         <v>-1.36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.34</v>
       </c>
@@ -743,7 +753,7 @@
         <v>-1.34</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.32</v>
       </c>
@@ -751,7 +761,7 @@
         <v>-1.32</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.3</v>
       </c>
@@ -759,7 +769,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.28</v>
       </c>
@@ -767,7 +777,7 @@
         <v>-1.28</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.26</v>
       </c>
@@ -775,7 +785,7 @@
         <v>-1.26</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.24</v>
       </c>
@@ -783,7 +793,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.22</v>
       </c>
@@ -791,7 +801,7 @@
         <v>-1.22</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-1.2</v>
       </c>
@@ -799,7 +809,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-1.18</v>
       </c>
@@ -807,7 +817,7 @@
         <v>-1.18</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-1.1599999999999999</v>
       </c>
@@ -815,7 +825,7 @@
         <v>-1.1599999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1.1399999999999999</v>
       </c>
@@ -823,7 +833,7 @@
         <v>-1.1399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-1.1200000000000001</v>
       </c>
@@ -831,7 +841,7 @@
         <v>-1.1200000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-1.1000000000000001</v>
       </c>
@@ -839,7 +849,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-1.08</v>
       </c>
@@ -847,7 +857,7 @@
         <v>-1.08</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-1.06</v>
       </c>
@@ -855,7 +865,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-1.04</v>
       </c>
@@ -863,7 +873,7 @@
         <v>-1.04</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-1.02</v>
       </c>
@@ -871,7 +881,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1</v>
       </c>
@@ -879,7 +889,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-0.98</v>
       </c>
@@ -887,7 +897,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-0.96</v>
       </c>
@@ -895,7 +905,7 @@
         <v>-0.96</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-0.94</v>
       </c>
@@ -903,7 +913,7 @@
         <v>-0.94</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-0.92</v>
       </c>
@@ -911,7 +921,7 @@
         <v>-0.92</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-0.9</v>
       </c>
@@ -919,7 +929,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-0.88</v>
       </c>
@@ -927,7 +937,7 @@
         <v>-0.88</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-0.86</v>
       </c>
@@ -935,7 +945,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-0.84</v>
       </c>
@@ -943,7 +953,7 @@
         <v>-0.84</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-0.82</v>
       </c>
@@ -951,7 +961,7 @@
         <v>-0.82</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-0.8</v>
       </c>
@@ -959,7 +969,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-0.78</v>
       </c>
@@ -967,7 +977,7 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-0.76</v>
       </c>
@@ -975,7 +985,7 @@
         <v>-0.76</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-0.74</v>
       </c>
@@ -983,7 +993,7 @@
         <v>-0.74</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-0.72</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>-0.72</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-0.7</v>
       </c>
@@ -999,7 +1009,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-0.68</v>
       </c>
@@ -1007,7 +1017,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.66</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.64</v>
       </c>
@@ -1023,7 +1033,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.62</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.6</v>
       </c>
@@ -1039,7 +1049,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.57999999999999996</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-0.56000000000000005</v>
       </c>
@@ -1055,7 +1065,7 @@
         <v>-0.56000000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-0.54</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-0.52</v>
       </c>
@@ -1071,7 +1081,7 @@
         <v>-0.52</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-0.5</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-0.48</v>
       </c>
@@ -1087,7 +1097,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-0.46</v>
       </c>
@@ -1095,7 +1105,7 @@
         <v>-0.46</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-0.44</v>
       </c>
@@ -1103,7 +1113,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-0.42</v>
       </c>
@@ -1111,7 +1121,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-0.4</v>
       </c>
@@ -1119,7 +1129,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-0.38</v>
       </c>
@@ -1127,7 +1137,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>-0.36</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-0.34</v>
       </c>
@@ -1143,7 +1153,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>-0.32</v>
       </c>
@@ -1151,7 +1161,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>-0.3</v>
       </c>
@@ -1159,7 +1169,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>-0.28000000000000003</v>
       </c>
@@ -1167,7 +1177,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>-0.26</v>
       </c>
@@ -1175,7 +1185,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>-0.24</v>
       </c>
@@ -1183,7 +1193,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>-0.22</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>-0.2</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>-0.18</v>
       </c>
@@ -1207,7 +1217,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>-0.16</v>
       </c>
@@ -1215,7 +1225,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>-0.14000000000000001</v>
       </c>
@@ -1223,7 +1233,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>-0.12</v>
       </c>
@@ -1231,7 +1241,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>-0.1</v>
       </c>
@@ -1239,7 +1249,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>-8.0000000000000099E-2</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>-8.0000000000000099E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>-6.0000000000000102E-2</v>
       </c>
@@ -1255,7 +1265,7 @@
         <v>-6.0000000000000102E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-0.04</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-0.02</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -1279,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0.02</v>
       </c>
@@ -1287,7 +1297,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0.04</v>
       </c>
@@ -1295,7 +1305,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6.0000000000000102E-2</v>
       </c>
@@ -1303,7 +1313,7 @@
         <v>6.0000000000000102E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8.0000000000000099E-2</v>
       </c>
@@ -1311,7 +1321,7 @@
         <v>8.0000000000000099E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.1</v>
       </c>
@@ -1319,7 +1329,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.12</v>
       </c>
@@ -1327,7 +1337,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0.14000000000000001</v>
       </c>
@@ -1335,7 +1345,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0.16</v>
       </c>
@@ -1343,7 +1353,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0.18</v>
       </c>
@@ -1351,7 +1361,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0.2</v>
       </c>
@@ -1359,7 +1369,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0.22</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0.24</v>
       </c>
@@ -1375,7 +1385,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0.26</v>
       </c>
@@ -1383,7 +1393,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0.28000000000000003</v>
       </c>
@@ -1391,7 +1401,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0.3</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0.32</v>
       </c>
@@ -1407,7 +1417,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0.34</v>
       </c>
@@ -1415,7 +1425,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0.36</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0.38</v>
       </c>
@@ -1431,7 +1441,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0.4</v>
       </c>
@@ -1439,7 +1449,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0.42</v>
       </c>
@@ -1447,7 +1457,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0.44</v>
       </c>
@@ -1455,7 +1465,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0.46</v>
       </c>
@@ -1463,7 +1473,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0.48</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0.5</v>
       </c>
@@ -1479,7 +1489,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0.52</v>
       </c>
@@ -1487,7 +1497,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0.54</v>
       </c>
@@ -1495,7 +1505,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0.56000000000000005</v>
       </c>
@@ -1503,7 +1513,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.57999999999999996</v>
       </c>
@@ -1511,7 +1521,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0.6</v>
       </c>
@@ -1519,7 +1529,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0.62</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0.64</v>
       </c>
@@ -1535,7 +1545,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0.66</v>
       </c>
@@ -1543,7 +1553,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0.68</v>
       </c>
@@ -1551,7 +1561,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0.7</v>
       </c>
@@ -1559,7 +1569,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0.72</v>
       </c>
@@ -1567,7 +1577,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0.74</v>
       </c>
@@ -1575,7 +1585,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0.76</v>
       </c>
@@ -1583,7 +1593,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0.78</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0.8</v>
       </c>
@@ -1599,7 +1609,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0.82</v>
       </c>
@@ -1607,7 +1617,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0.84</v>
       </c>
@@ -1615,7 +1625,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0.86</v>
       </c>
@@ -1623,7 +1633,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0.88</v>
       </c>
@@ -1631,7 +1641,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.9</v>
       </c>
@@ -1639,7 +1649,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0.92</v>
       </c>
@@ -1647,7 +1657,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0.94</v>
       </c>
@@ -1655,7 +1665,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0.96</v>
       </c>
@@ -1663,7 +1673,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0.98</v>
       </c>
@@ -1671,7 +1681,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -1679,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1.02</v>
       </c>
@@ -1687,7 +1697,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1.04</v>
       </c>
@@ -1695,7 +1705,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1.06</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1.08</v>
       </c>
@@ -1711,7 +1721,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1.1000000000000001</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1.1200000000000001</v>
       </c>
@@ -1727,7 +1737,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1.1399999999999999</v>
       </c>
@@ -1735,7 +1745,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1.1599999999999999</v>
       </c>
@@ -1743,7 +1753,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1.18</v>
       </c>
@@ -1751,7 +1761,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1.2</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1.22</v>
       </c>
@@ -1767,7 +1777,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.24</v>
       </c>
@@ -1775,7 +1785,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1.26</v>
       </c>
@@ -1783,7 +1793,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1.28</v>
       </c>
@@ -1791,7 +1801,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1.3</v>
       </c>
@@ -1799,7 +1809,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1.32</v>
       </c>
@@ -1807,7 +1817,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1.34</v>
       </c>
@@ -1815,7 +1825,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1.36</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1.38</v>
       </c>
@@ -1831,7 +1841,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1.4</v>
       </c>
@@ -1839,7 +1849,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1.42</v>
       </c>
@@ -1847,7 +1857,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1.44</v>
       </c>
@@ -1855,7 +1865,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1.46</v>
       </c>
@@ -1863,7 +1873,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1.48</v>
       </c>
@@ -1871,7 +1881,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1.5</v>
       </c>
@@ -1879,7 +1889,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1.52</v>
       </c>
@@ -1887,7 +1897,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1.54</v>
       </c>
@@ -1895,7 +1905,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1.56</v>
       </c>
@@ -1903,7 +1913,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1.58</v>
       </c>
@@ -1911,7 +1921,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1.6</v>
       </c>
@@ -1919,7 +1929,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1.62</v>
       </c>
@@ -1927,7 +1937,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1.64</v>
       </c>
@@ -1935,7 +1945,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1.66</v>
       </c>
@@ -1943,7 +1953,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1.68</v>
       </c>
@@ -1951,7 +1961,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1.7</v>
       </c>
@@ -1959,7 +1969,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1.72</v>
       </c>
@@ -1967,7 +1977,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1.74</v>
       </c>
@@ -1975,7 +1985,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1.76</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1.78</v>
       </c>
@@ -1991,7 +2001,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1.8</v>
       </c>
@@ -1999,7 +2009,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1.82</v>
       </c>
@@ -2007,7 +2017,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1.84</v>
       </c>
@@ -2015,7 +2025,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1.86</v>
       </c>
@@ -2023,7 +2033,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1.88</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1.9</v>
       </c>
@@ -2039,7 +2049,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1.92</v>
       </c>
@@ -2047,7 +2057,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1.94</v>
       </c>
@@ -2055,7 +2065,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1.96</v>
       </c>
@@ -2063,7 +2073,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1.98</v>
       </c>
@@ -2071,7 +2081,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2</v>
       </c>
@@ -2083,8 +2093,8 @@
   <conditionalFormatting sqref="E1:E3 D4:D9 E11:E1048576">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2092,8 +2102,8 @@
   <conditionalFormatting sqref="F4:F9 G9">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -2104,12 +2114,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2117,12 +2127,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
